--- a/JMP_RELAY-v21/BOM/JMP_RELAY-v21-NOTE.xlsx
+++ b/JMP_RELAY-v21/BOM/JMP_RELAY-v21-NOTE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="172">
   <si>
     <t>Qty</t>
   </si>
@@ -468,9 +468,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>io non l'ho trovato, ho messo un piedino di un condensatore e ripassato con lo stagno</t>
-  </si>
-  <si>
     <t>servono nel caso si volessero usare dei sensori i2c a 3.3v con arduino</t>
   </si>
   <si>
@@ -499,6 +496,45 @@
   </si>
   <si>
     <t>da saldare verso l'alto per arduino, verso il basso per il wemos</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>Con Board Esterna</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/Free-shipping-120pcs-12-value-kit-1uF-470uF-Electrolytic-Capacitor-Package-1UF-2-2UF-3-3UF/1940215752.html?s=p&amp;ws_ab_test=searchweb0_0,searchweb201602_4_10152_5722813_10151_10065_10344_10068_10342_5722613_10343_5722913_10340_10341_10696_10084_10083_5722713_10618_10304_10307_10302_5711213_10059_308_100031_10103_10624_10623_10622_10621_10620_5722513_5711313,searchweb201603_25,ppcSwitch_7&amp;algo_expid=d5681d8f-80fd-4e2a-8694-1de69a664e1d-0&amp;algo_pvid=d5681d8f-80fd-4e2a-8694-1de69a664e1d&amp;priceBeautifyAB=0</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/MCIGICM-100pcs-0805-smd-capacitor-ceramic-22pf-100nf-1uf-2-2uf-4-7uf-10uf-47uf-22uf/32842027469.html?priceBeautifyAB=0</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/100PCS-LOT-1206-SMD-White-Red-Blue-Green-Yellow-20pcs-each-Super-Bright-1206-SMD-LED/32625060560.html?s=p&amp;ws_ab_test=searchweb0_0,searchweb201602_4_10152_10151_10065_10344_10068_5722815_10342_10343_10340_5722915_10341_5722615_10696_10084_10083_10618_10304_10307_10302_5722715_5711215_10059_308_100031_10103_10624_10623_10622_5711315_5722515_10621_10620,searchweb201603_25,ppcSwitch_7&amp;algo_expid=1d17769c-0fcb-4ac5-b60a-2e86fdccec82-1&amp;algo_pvid=1d17769c-0fcb-4ac5-b60a-2e86fdccec82&amp;priceBeautifyAB=0</t>
+  </si>
+  <si>
+    <t>transistor di pilotaggio relay</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/5-Pcs-Circuit-Protection-MST-Slow-Blow-Round-Fast-Blow-Microfuse/2052464025.html</t>
+  </si>
+  <si>
+    <t>trovato su Aliexpress</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/Free-shipping-0805-SMD-Resistor-Kit-Assorted-Kit-1ohm-1M-ohm-1-33valuesX-20pcs-660pcs-Sample/32774104745.html?ws_ab_test=searchweb0_0,searchweb201602_4_10152_5722813_10151_10065_10344_10068_10342_5722613_10343_5722913_10340_10341_10696_10084_10083_5722713_10618_10304_10307_10302_5711213_10059_308_100031_10103_10624_10623_10622_10621_10620_5722513_5711313,searchweb201603_25,ppcSwitch_7&amp;algo_expid=c394979e-b5b4-4bb5-85d7-63ae5fcb23e7-1&amp;algo_pvid=c394979e-b5b4-4bb5-85d7-63ae5fcb23e7&amp;priceBeautifyAB=0</t>
+  </si>
+  <si>
+    <t>presente dappertutto su Aliexpress</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/10PCS-Normal-Closed-Tact-Switch-6X6X4-3-SMD-vertical-Tactile-Push-Button-Switch-Force-250g-Normally/32766821112.html?ws_ab_test=searchweb0_0,searchweb201602_4_10152_5722813_10151_10065_10344_10068_10342_5722613_10343_5722913_10340_10341_10696_10084_10083_5722713_10618_10304_10307_10302_5711213_10059_308_100031_10103_10624_10623_10622_10621_10620_5722513_5711313,searchweb201603_25,ppcSwitch_7&amp;algo_expid=d8902831-dc69-42ae-8634-297a4457a6e0-8&amp;algo_pvid=d8902831-dc69-42ae-8634-297a4457a6e0&amp;priceBeautifyAB=0</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/50pcs-lot-5-2-5-2-1-5mm-4-PIN-SMT-G66-Metal-Tactile-Push-Button/32669552433.html?ws_ab_test=searchweb0_0,searchweb201602_4_10152_5722813_10151_10065_10344_10068_10342_5722613_10343_5722913_10340_10341_10696_10084_10083_5722713_10618_10304_10307_10302_5711213_10059_308_100031_10103_10624_10623_10622_10621_10620_5722513_5711313,searchweb201603_25,ppcSwitch_7&amp;algo_expid=d8902831-dc69-42ae-8634-297a4457a6e0-17&amp;algo_pvid=d8902831-dc69-42ae-8634-297a4457a6e0&amp;priceBeautifyAB=0</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/10PCS-7D271K-varistor-270V-piezoresistor-7D271-free-shipping/32655637774.html?ws_ab_test=searchweb0_0,searchweb201602_4_10152_5722813_10151_10065_10344_10068_10342_5722613_10343_5722913_10340_10341_10696_10084_10083_5722713_10618_10304_10307_10302_5711213_10059_308_100031_10103_10624_10623_10622_10621_10620_5722513_5711313,searchweb201603_25,ppcSwitch_7&amp;algo_expid=18807b36-ba52-4a17-8bb8-b2ec5f7da229-1&amp;algo_pvid=18807b36-ba52-4a17-8bb8-b2ec5f7da229&amp;priceBeautifyAB=0</t>
   </si>
 </sst>
 </file>
@@ -1351,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,10 +1403,11 @@
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1401,8 +1438,14 @@
       <c r="J1" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1419,7 +1462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1436,7 +1479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1452,8 +1495,11 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1470,7 +1516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1493,10 +1539,16 @@
         <v>148</v>
       </c>
       <c r="J6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="K6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1513,10 +1565,10 @@
         <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1536,7 +1588,7 @@
         <v>320030017</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1556,7 +1608,7 @@
         <v>320030023</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1573,10 +1625,10 @@
         <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1596,7 +1648,7 @@
         <v>320030024</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1616,10 +1668,10 @@
         <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1636,7 +1688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1656,7 +1708,7 @@
         <v>320110048</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1681,8 +1733,14 @@
       <c r="I15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1704,8 +1762,14 @@
       <c r="I16" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1727,8 +1791,14 @@
       <c r="I17" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1754,10 +1824,16 @@
         <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1777,7 +1853,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1797,7 +1873,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1825,8 +1901,14 @@
       <c r="J21" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>148</v>
+      </c>
+      <c r="L21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1851,8 +1933,17 @@
       <c r="I22" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1875,7 +1966,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1904,7 +1995,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1924,10 +2015,16 @@
         <v>148</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="K25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1955,8 +2052,14 @@
       <c r="I26" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1979,10 +2082,10 @@
         <v>125</v>
       </c>
       <c r="J27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2001,8 +2104,11 @@
       <c r="G28" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2025,7 +2131,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2054,10 +2160,10 @@
         <v>148</v>
       </c>
       <c r="J30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2080,7 +2186,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2106,10 +2212,10 @@
         <v>148</v>
       </c>
       <c r="J32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2129,10 +2235,10 @@
         <v>112</v>
       </c>
       <c r="J33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2155,10 +2261,10 @@
         <v>130</v>
       </c>
       <c r="J34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2178,10 +2284,10 @@
         <v>129</v>
       </c>
       <c r="J35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2209,8 +2315,14 @@
       <c r="I36" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2230,10 +2342,10 @@
         <v>122</v>
       </c>
       <c r="J37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
